--- a/ExplorerFund/NetValue/新征程基金记录10月_4.xlsx
+++ b/ExplorerFund/NetValue/新征程基金记录10月_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="34">
@@ -257,28 +257,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +302,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -309,49 +365,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,43 +399,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -421,12 +421,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,157 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,45 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,6 +644,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,6 +692,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -729,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -936,58 +936,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="32">
-        <f>C19/E19</f>
+        <f t="shared" si="5"/>
         <v>188307.95883588</v>
       </c>
       <c r="H19" s="33" t="s">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B20" s="25">
         <f>D20+E20+F20</f>
-        <v>6548439.4</v>
+        <v>6736747.36</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25">
@@ -2201,8 +2201,8 @@
         <v>1575000</v>
       </c>
       <c r="F20" s="34">
-        <f>4531779.4</f>
-        <v>4531779.4</v>
+        <f>4720087.36</f>
+        <v>4720087.36</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
@@ -2278,7 +2278,7 @@
         <v>1821730</v>
       </c>
       <c r="F22" s="35">
-        <v>4813151</v>
+        <v>5013151</v>
       </c>
       <c r="G22" s="22">
         <v>1.08964</v>
@@ -2319,7 +2319,7 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
